--- a/scores.xlsx
+++ b/scores.xlsx
@@ -528,49 +528,49 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.715941985645933</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>42.22223211119788</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>24.00812943631453</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>418.8830781163161</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.17873096110801</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>46.25373463539849</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>36.27592441028044</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>422.084924561008</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.366148325358852</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>41.03703920562463</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>23.57897093021315</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>417.4367504453377</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -578,49 +578,49 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2.036041728158205</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>36.03150636177188</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>20.61784267712213</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>415.5438329624035</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>1.554924312067169</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>52.98765881831494</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>25.73683853237733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>421.5101426455901</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>1.009339027449823</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>35.19276446731414</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>20.53434613615186</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>414.9675002756596</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -628,49 +628,49 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>18.42103913685592</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>64.72339220569529</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>39.7800072343436</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>432.8993308496341</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0.7160848620296953</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>51.30961586720532</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>33.01705743355363</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>422.2111217054813</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3.400313833278635</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>57.867346775904</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>37.933370245896</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>425.966972231934</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -678,49 +678,49 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>3.684851942663146</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>61.46790816742585</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>24.32825177947639</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>424.411478388922</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1.914196279270304</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>75.80557933448844</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>49.22550411177843</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>433.1610335064833</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1.347104866088269</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>60.25095583558616</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>23.70734573984063</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>423.2208873584705</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -728,49 +728,49 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>2.71779154247392</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>65.18309386226511</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>19.9398357625764</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>424.358232773937</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2.065419636754223</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>42.70193039325233</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>22.35601667923642</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>417.9014083448492</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>0.9009864008941878</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>64.91296563128455</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>19.83575937026487</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>423.7113374837066</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -778,49 +778,49 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>3.779955368447708</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>65.56708149125991</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2000</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>33.19422744025417</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>427.4429565459631</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>0.8682371538949296</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>66.41397232977872</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>20.47413757137727</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>424.2794903593775</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>1.737731071157255</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>64.63440191861908</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>2000</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>33.00204401635291</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>426.5120487002035</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -828,49 +828,49 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>1.447986270433037</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>26.6072378715509</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>2000</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>32.12825861709734</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>414.8422189660146</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>0.9272868098872874</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>67.55608589823039</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>32.10661106155546</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>426.9663340247464</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>0.4441425293948953</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>26.38251844412708</v>
       </c>
       <c r="N8">
-        <v>6</v>
+        <v>2000</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>31.90160749070559</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>414.4283197901977</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -878,49 +878,49 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>7.702746652572234</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>44.15755032557821</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>34.68324433125234</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>422.4947379596956</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>0.3822582273517379</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>26.64165717176652</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>32.08365512679532</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>414.5239056450945</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>2.457288583509514</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>40.75908435201401</v>
       </c>
       <c r="N9">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>34.37733834447735</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>419.8403795495526</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -928,49 +928,49 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>4.512147956510349</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>51.16708529804799</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>37.2489788626585</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>424.1535657488992</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>0.6186927752210684</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>36.63880465358451</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>20.70763140711556</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>415.3187755100648</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>1.082997118155619</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>50.51310236631329</v>
       </c>
       <c r="N10">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="O10">
-        <v>8</v>
+        <v>34.08780499832672</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>422.296390845006</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -978,49 +978,49 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>3.254099219540396</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>65.36881959765681</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>2000</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>28.69060294051243</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>426.3249962332617</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>4.142267114882431</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>64.99956041147649</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>29.99256628928473</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>426.7410615157646</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>1.398666714843185</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>64.3970570169823</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>2000</v>
       </c>
       <c r="O11">
-        <v>9</v>
+        <v>28.54029601833661</v>
       </c>
       <c r="P11">
-        <v>9</v>
+        <v>425.446776323215</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1028,49 +1028,49 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>5.837056497577658</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>58.28319888439398</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>32.35556476706021</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>425.7071895680035</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>0.5750958818698866</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>65.96221032500618</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>20.04039749552189</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>423.9692713611672</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>2.227755414648048</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>56.36169645466154</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="O12">
-        <v>10</v>
+        <v>31.12070991631914</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>423.8009775440567</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1078,49 +1078,49 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>9.773338441985645</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>46.0627233099522</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>2000</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>37.96894048800728</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>424.3446066231828</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>1.1819081645297</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>66.06916958428691</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>28.96321554517722</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>425.9679664336804</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>2.238450396232057</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>43.24324738904041</v>
       </c>
       <c r="N13">
-        <v>11</v>
+        <v>2000</v>
       </c>
       <c r="O13">
-        <v>11</v>
+        <v>25.77087513892217</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>418.7986843633662</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1128,49 +1128,49 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>4.974390825198292</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>41.21325032780346</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>27.66504941777041</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>419.3893022294546</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>0.6224575697008706</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>61.99419495745683</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>23.09843530915621</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>423.4046828199786</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>1.665155010677242</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>39.19350698318627</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="O14">
-        <v>12</v>
+        <v>27.29789635250295</v>
       </c>
       <c r="P14">
-        <v>12</v>
+        <v>417.7171778686596</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1178,49 +1178,49 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>6.37260101010101</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>52.47114828446551</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>2000</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>29.35888224747742</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>423.5249012378654</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>1.189381202450474</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>41.53789391957205</v>
       </c>
       <c r="I15">
-        <v>13</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>27.5475491563857</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>418.3276923678839</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>1.89518837018837</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>51.1119871117759</v>
       </c>
       <c r="N15">
-        <v>13</v>
+        <v>2000</v>
       </c>
       <c r="O15">
-        <v>13</v>
+        <v>25.84874014457802</v>
       </c>
       <c r="P15">
-        <v>13</v>
+        <v>421.0719006735048</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1228,49 +1228,49 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>6.557349793064079</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>71.80938274560448</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>2000</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>49.45750816275599</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>433.4015213941518</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>5.232141182695592</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>67.06349672525378</v>
       </c>
       <c r="I16">
-        <v>14</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>38.40833148548268</v>
       </c>
       <c r="K16">
-        <v>14</v>
+        <v>429.3703576694813</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>2.424721706864564</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>70.50451626235278</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>2000</v>
       </c>
       <c r="O16">
-        <v>14</v>
+        <v>45.69008443724165</v>
       </c>
       <c r="P16">
-        <v>14</v>
+        <v>431.0167882782135</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1278,49 +1278,49 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>45</v>
+        <v>3.956701308975834</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>64.44960907057917</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>21.25681966221678</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>424.7732570463099</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>2.690897953080754</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>48.59696759510381</v>
       </c>
       <c r="I17">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>27.33400426593479</v>
       </c>
       <c r="K17">
-        <v>15</v>
+        <v>420.8531605176423</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>1.115828178941312</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>63.81907297385261</v>
       </c>
       <c r="N17">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="O17">
-        <v>15</v>
+        <v>20.65238190328456</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>423.6109467264951</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -525,7 +525,7 @@
         <v>4.715941985645933</v>
       </c>
       <c r="C2" t="n">
-        <v>42.22223211119788</v>
+        <v>4.222223211119789</v>
       </c>
       <c r="D2" t="n">
         <v>16.55774271987239</v>
@@ -534,13 +534,13 @@
         <v>24.00812943631453</v>
       </c>
       <c r="F2" t="n">
-        <v>8.178140958007422</v>
+        <v>2.559317730011622</v>
       </c>
       <c r="G2" t="n">
         <v>3.17873096110801</v>
       </c>
       <c r="H2" t="n">
-        <v>46.25373463539849</v>
+        <v>4.625373463539849</v>
       </c>
       <c r="I2" t="n">
         <v>18.1387193222021</v>
@@ -549,22 +549,22 @@
         <v>36.27592441028044</v>
       </c>
       <c r="K2" t="n">
-        <v>11.1566401084279</v>
+        <v>4.596231881963304</v>
       </c>
       <c r="L2" t="n">
-        <v>1.366148325358852</v>
+        <v>17.28446471291866</v>
       </c>
       <c r="M2" t="n">
-        <v>41.03703920562463</v>
+        <v>4.991295985400049</v>
       </c>
       <c r="N2" t="n">
-        <v>16.09295655122535</v>
+        <v>19.57371478280446</v>
       </c>
       <c r="O2" t="n">
-        <v>23.57897093021315</v>
+        <v>24.12717311370862</v>
       </c>
       <c r="P2" t="n">
-        <v>6.735037998890091</v>
+        <v>-2.083714412855725</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +577,7 @@
         <v>2.036041728158205</v>
       </c>
       <c r="C3" t="n">
-        <v>36.03150636177188</v>
+        <v>3.603150636177189</v>
       </c>
       <c r="D3" t="n">
         <v>14.1300024948125</v>
@@ -586,13 +586,13 @@
         <v>20.61784267712213</v>
       </c>
       <c r="F3" t="n">
-        <v>6.222619357185232</v>
+        <v>2.992422884558274</v>
       </c>
       <c r="G3" t="n">
         <v>1.554924312067169</v>
       </c>
       <c r="H3" t="n">
-        <v>52.98765881831494</v>
+        <v>5.298765881831494</v>
       </c>
       <c r="I3" t="n">
         <v>20.77947442072099</v>
@@ -601,22 +601,22 @@
         <v>25.73683853237733</v>
       </c>
       <c r="K3" t="n">
-        <v>7.20015028685277</v>
+        <v>4.517979248005615</v>
       </c>
       <c r="L3" t="n">
-        <v>1.009339027449823</v>
+        <v>6.225969414108619</v>
       </c>
       <c r="M3" t="n">
-        <v>35.19276446731414</v>
+        <v>3.969817732951864</v>
       </c>
       <c r="N3" t="n">
-        <v>13.80108410482908</v>
+        <v>15.56790661812184</v>
       </c>
       <c r="O3" t="n">
-        <v>20.53434613615186</v>
+        <v>20.41216723425281</v>
       </c>
       <c r="P3" t="n">
-        <v>5.804979826059888</v>
+        <v>1.473464961520643</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         <v>18.42103913685592</v>
       </c>
       <c r="C4" t="n">
-        <v>64.72339220569529</v>
+        <v>6.47233922056953</v>
       </c>
       <c r="D4" t="n">
         <v>25.38172241090424</v>
@@ -638,13 +638,13 @@
         <v>39.7800072343436</v>
       </c>
       <c r="F4" t="n">
-        <v>17.90642308665677</v>
+        <v>-0.2557722152980224</v>
       </c>
       <c r="G4" t="n">
         <v>0.7160848620296953</v>
       </c>
       <c r="H4" t="n">
-        <v>51.30961586720532</v>
+        <v>5.130961586720532</v>
       </c>
       <c r="I4" t="n">
         <v>20.12141798713934</v>
@@ -653,22 +653,22 @@
         <v>33.01705743355363</v>
       </c>
       <c r="K4" t="n">
-        <v>9.084873185585304</v>
+        <v>5.500266919955192</v>
       </c>
       <c r="L4" t="n">
-        <v>3.400313833278635</v>
+        <v>66.21822899573351</v>
       </c>
       <c r="M4" t="n">
-        <v>57.867346775904</v>
+        <v>9.497148630804267</v>
       </c>
       <c r="N4" t="n">
-        <v>22.69307716702118</v>
+        <v>37.24370443203261</v>
       </c>
       <c r="O4" t="n">
-        <v>37.933370245896</v>
+        <v>28.16507224873779</v>
       </c>
       <c r="P4" t="n">
-        <v>11.49201736289409</v>
+        <v>-19.07118807625439</v>
       </c>
     </row>
     <row r="5">
@@ -681,7 +681,7 @@
         <v>3.684851942663146</v>
       </c>
       <c r="C5" t="n">
-        <v>61.46790816742585</v>
+        <v>6.146790816742586</v>
       </c>
       <c r="D5" t="n">
         <v>24.10506202644151</v>
@@ -690,13 +690,13 @@
         <v>24.32825177947639</v>
       </c>
       <c r="F5" t="n">
-        <v>7.446637899453892</v>
+        <v>3.935859561147907</v>
       </c>
       <c r="G5" t="n">
         <v>1.914196279270304</v>
       </c>
       <c r="H5" t="n">
-        <v>75.80557933448844</v>
+        <v>7.580557933448844</v>
       </c>
       <c r="I5" t="n">
         <v>29.72768217147128</v>
@@ -705,22 +705,22 @@
         <v>49.22550411177843</v>
       </c>
       <c r="K5" t="n">
-        <v>13.89830824608706</v>
+        <v>7.828240953729322</v>
       </c>
       <c r="L5" t="n">
-        <v>1.347104866088269</v>
+        <v>13.26006412674463</v>
       </c>
       <c r="M5" t="n">
-        <v>60.25095583558616</v>
+        <v>6.52599831047601</v>
       </c>
       <c r="N5" t="n">
-        <v>23.62782581787693</v>
+        <v>25.59214867785863</v>
       </c>
       <c r="O5" t="n">
-        <v>23.70734573984063</v>
+        <v>24.36611026990594</v>
       </c>
       <c r="P5" t="n">
-        <v>6.351515248404264</v>
+        <v>0.2932156187216668</v>
       </c>
     </row>
     <row r="6">
@@ -733,7 +733,7 @@
         <v>2.71779154247392</v>
       </c>
       <c r="C6" t="n">
-        <v>65.18309386226511</v>
+        <v>6.518309386226512</v>
       </c>
       <c r="D6" t="n">
         <v>25.56199709051231</v>
@@ -742,13 +742,13 @@
         <v>19.9398357625764</v>
       </c>
       <c r="F6" t="n">
-        <v>5.663157377638437</v>
+        <v>4.06377356150258</v>
       </c>
       <c r="G6" t="n">
         <v>2.065419636754223</v>
       </c>
       <c r="H6" t="n">
-        <v>42.70193039325233</v>
+        <v>4.270193039325234</v>
       </c>
       <c r="I6" t="n">
         <v>16.74585533248155</v>
@@ -757,22 +757,22 @@
         <v>22.35601667923642</v>
       </c>
       <c r="K6" t="n">
-        <v>6.611950885643691</v>
+        <v>3.477546967920692</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9009864008941878</v>
+        <v>10.03842026825633</v>
       </c>
       <c r="M6" t="n">
-        <v>64.91296563128455</v>
+        <v>6.777379886930184</v>
       </c>
       <c r="N6" t="n">
-        <v>25.45606495344492</v>
+        <v>26.57795115592092</v>
       </c>
       <c r="O6" t="n">
-        <v>19.83575937026487</v>
+        <v>19.77648636999793</v>
       </c>
       <c r="P6" t="n">
-        <v>4.911038798997665</v>
+        <v>1.244656794802388</v>
       </c>
     </row>
     <row r="7">
@@ -785,7 +785,7 @@
         <v>3.779955368447708</v>
       </c>
       <c r="C7" t="n">
-        <v>65.56708149125991</v>
+        <v>6.556708149125992</v>
       </c>
       <c r="D7" t="n">
         <v>25.71258097696467</v>
@@ -794,13 +794,13 @@
         <v>33.19422744025417</v>
       </c>
       <c r="F7" t="n">
-        <v>10.05605842572228</v>
+        <v>4.98294434730147</v>
       </c>
       <c r="G7" t="n">
         <v>0.9272868098872874</v>
       </c>
       <c r="H7" t="n">
-        <v>67.55608589823039</v>
+        <v>6.75560858982304</v>
       </c>
       <c r="I7" t="n">
         <v>26.49258270518839</v>
@@ -809,22 +809,22 @@
         <v>32.10661106155546</v>
       </c>
       <c r="K7" t="n">
-        <v>8.54580599363619</v>
+        <v>6.111580346291397</v>
       </c>
       <c r="L7" t="n">
-        <v>1.737731071157255</v>
+        <v>12.11808844011142</v>
       </c>
       <c r="M7" t="n">
-        <v>64.63440191861908</v>
+        <v>6.963023438158046</v>
       </c>
       <c r="N7" t="n">
-        <v>25.3468242818114</v>
+        <v>27.30597826817089</v>
       </c>
       <c r="O7" t="n">
-        <v>33.00204401635291</v>
+        <v>33.21571584114716</v>
       </c>
       <c r="P7" t="n">
-        <v>9.201630297869148</v>
+        <v>1.846624830256911</v>
       </c>
     </row>
     <row r="8">
@@ -837,7 +837,7 @@
         <v>1.447986270433037</v>
       </c>
       <c r="C8" t="n">
-        <v>26.6072378715509</v>
+        <v>2.66072378715509</v>
       </c>
       <c r="D8" t="n">
         <v>10.43421011871853</v>
@@ -846,13 +846,13 @@
         <v>32.12825861709734</v>
       </c>
       <c r="F8" t="n">
-        <v>9.643790329891035</v>
+        <v>3.922256241133697</v>
       </c>
       <c r="G8" t="n">
         <v>0.3822582273517379</v>
       </c>
       <c r="H8" t="n">
-        <v>26.64165717176652</v>
+        <v>2.664165717176652</v>
       </c>
       <c r="I8" t="n">
         <v>10.4477086948104</v>
@@ -861,22 +861,22 @@
         <v>32.08365512679532</v>
       </c>
       <c r="K8" t="n">
-        <v>9.203375850764719</v>
+        <v>4.345754245547921</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4441425293948953</v>
+        <v>5.413915973616289</v>
       </c>
       <c r="M8" t="n">
-        <v>26.38251844412708</v>
+        <v>2.816777870994172</v>
       </c>
       <c r="N8" t="n">
-        <v>10.34608566436356</v>
+        <v>11.04618637067342</v>
       </c>
       <c r="O8" t="n">
-        <v>31.90160749070559</v>
+        <v>32.21762696552921</v>
       </c>
       <c r="P8" t="n">
-        <v>9.179104547429638</v>
+        <v>2.420400219942837</v>
       </c>
     </row>
     <row r="9">
@@ -889,7 +889,7 @@
         <v>7.702746652572234</v>
       </c>
       <c r="C9" t="n">
-        <v>44.15755032557821</v>
+        <v>4.415755032557821</v>
       </c>
       <c r="D9" t="n">
         <v>17.31668640218753</v>
@@ -898,13 +898,13 @@
         <v>34.68324433125234</v>
       </c>
       <c r="F9" t="n">
-        <v>12.53365420828428</v>
+        <v>2.5258365427665</v>
       </c>
       <c r="G9" t="n">
         <v>0.6186927752210684</v>
       </c>
       <c r="H9" t="n">
-        <v>36.63880465358451</v>
+        <v>3.663880465358452</v>
       </c>
       <c r="I9" t="n">
         <v>14.36815855339739</v>
@@ -913,22 +913,22 @@
         <v>20.70763140711556</v>
       </c>
       <c r="K9" t="n">
-        <v>5.669517777544121</v>
+        <v>3.597753601695072</v>
       </c>
       <c r="L9" t="n">
-        <v>2.457288583509514</v>
+        <v>25.94161733615222</v>
       </c>
       <c r="M9" t="n">
-        <v>40.75908435201401</v>
+        <v>6.245329638807759</v>
       </c>
       <c r="N9" t="n">
-        <v>15.98395464784863</v>
+        <v>24.49149171334361</v>
       </c>
       <c r="O9" t="n">
-        <v>34.37733834447735</v>
+        <v>34.120233169054</v>
       </c>
       <c r="P9" t="n">
-        <v>10.41699943111534</v>
+        <v>-3.939924166529095</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>4.512147956510349</v>
       </c>
       <c r="C10" t="n">
-        <v>51.16708529804799</v>
+        <v>5.1167085298048</v>
       </c>
       <c r="D10" t="n">
         <v>20.06552364629333</v>
@@ -950,13 +950,13 @@
         <v>37.2489788626585</v>
       </c>
       <c r="F10" t="n">
-        <v>11.87594904085556</v>
+        <v>4.398130873978936</v>
       </c>
       <c r="G10" t="n">
         <v>4.142267114882431</v>
       </c>
       <c r="H10" t="n">
-        <v>64.99956041147649</v>
+        <v>6.49995604114765</v>
       </c>
       <c r="I10" t="n">
         <v>25.49002347324639</v>
@@ -965,22 +965,22 @@
         <v>29.99256628928473</v>
       </c>
       <c r="K10" t="n">
-        <v>9.252725386240019</v>
+        <v>4.490367665280484</v>
       </c>
       <c r="L10" t="n">
-        <v>1.082997118155619</v>
+        <v>14.87813073094053</v>
       </c>
       <c r="M10" t="n">
-        <v>50.51310236631329</v>
+        <v>5.600666246139735</v>
       </c>
       <c r="N10" t="n">
-        <v>19.80905975149541</v>
+        <v>21.96339552362443</v>
       </c>
       <c r="O10" t="n">
-        <v>34.08780499832672</v>
+        <v>36.26854107813476</v>
       </c>
       <c r="P10" t="n">
-        <v>9.570042060428014</v>
+        <v>0.3880810463202282</v>
       </c>
     </row>
     <row r="11">
@@ -993,7 +993,7 @@
         <v>3.254099219540396</v>
       </c>
       <c r="C11" t="n">
-        <v>65.36881959765681</v>
+        <v>6.536881959765681</v>
       </c>
       <c r="D11" t="n">
         <v>25.63483121476738</v>
@@ -1002,13 +1002,13 @@
         <v>28.69060294051243</v>
       </c>
       <c r="F11" t="n">
-        <v>8.498904853157683</v>
+        <v>4.733322261258856</v>
       </c>
       <c r="G11" t="n">
         <v>0.5750958818698866</v>
       </c>
       <c r="H11" t="n">
-        <v>65.96221032500618</v>
+        <v>6.596221032500619</v>
       </c>
       <c r="I11" t="n">
         <v>25.86753346078674</v>
@@ -1017,22 +1017,22 @@
         <v>20.04039749552189</v>
       </c>
       <c r="K11" t="n">
-        <v>4.81944326106125</v>
+        <v>4.968641779211397</v>
       </c>
       <c r="L11" t="n">
-        <v>1.398666714843185</v>
+        <v>10.52265320132967</v>
       </c>
       <c r="M11" t="n">
-        <v>64.3970570169823</v>
+        <v>6.925087483223781</v>
       </c>
       <c r="N11" t="n">
-        <v>25.25374784979698</v>
+        <v>27.15720405473038</v>
       </c>
       <c r="O11" t="n">
-        <v>28.54029601833661</v>
+        <v>27.49027811796294</v>
       </c>
       <c r="P11" t="n">
-        <v>7.732599359699424</v>
+        <v>1.893881097243367</v>
       </c>
     </row>
     <row r="12">
@@ -1045,7 +1045,7 @@
         <v>5.837056497577658</v>
       </c>
       <c r="C12" t="n">
-        <v>58.28319888439398</v>
+        <v>5.828319888439398</v>
       </c>
       <c r="D12" t="n">
         <v>22.85615642525254</v>
@@ -1054,13 +1054,13 @@
         <v>32.35556476706021</v>
       </c>
       <c r="F12" t="n">
-        <v>10.78440342576024</v>
+        <v>3.723469196193645</v>
       </c>
       <c r="G12" t="n">
         <v>1.1819081645297</v>
       </c>
       <c r="H12" t="n">
-        <v>66.06916958428691</v>
+        <v>6.606916958428691</v>
       </c>
       <c r="I12" t="n">
         <v>25.90947812867401</v>
@@ -1069,22 +1069,22 @@
         <v>28.96321554517722</v>
       </c>
       <c r="K12" t="n">
-        <v>7.736706596671159</v>
+        <v>5.623378826912037</v>
       </c>
       <c r="L12" t="n">
-        <v>2.227755414648048</v>
+        <v>17.08750890567113</v>
       </c>
       <c r="M12" t="n">
-        <v>56.36169645466154</v>
+        <v>6.703110813527243</v>
       </c>
       <c r="N12" t="n">
-        <v>22.10262606065158</v>
+        <v>26.28671813211271</v>
       </c>
       <c r="O12" t="n">
-        <v>31.12070991631914</v>
+        <v>32.68543386540362</v>
       </c>
       <c r="P12" t="n">
-        <v>9.011670707419123</v>
+        <v>-0.3200497933637232</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1097,7 @@
         <v>9.773338441985645</v>
       </c>
       <c r="C13" t="n">
-        <v>46.0627233099522</v>
+        <v>4.60627233099522</v>
       </c>
       <c r="D13" t="n">
         <v>18.06381213521527</v>
@@ -1106,13 +1106,13 @@
         <v>37.96894048800728</v>
       </c>
       <c r="F13" t="n">
-        <v>14.30650761924428</v>
+        <v>2.118439399750958</v>
       </c>
       <c r="G13" t="n">
         <v>0.6224575697008706</v>
       </c>
       <c r="H13" t="n">
-        <v>61.99419495745683</v>
+        <v>6.199419495745683</v>
       </c>
       <c r="I13" t="n">
         <v>24.31144900292425</v>
@@ -1121,22 +1121,22 @@
         <v>23.09843530915621</v>
       </c>
       <c r="K13" t="n">
-        <v>5.841383925466378</v>
+        <v>5.063324454896417</v>
       </c>
       <c r="L13" t="n">
-        <v>2.238450396232057</v>
+        <v>24.56446153558612</v>
       </c>
       <c r="M13" t="n">
-        <v>43.24324738904041</v>
+        <v>5.729196073446793</v>
       </c>
       <c r="N13" t="n">
-        <v>16.95813685440777</v>
+        <v>22.46744359205555</v>
       </c>
       <c r="O13" t="n">
-        <v>25.77087513892217</v>
+        <v>34.6814946209151</v>
       </c>
       <c r="P13" t="n">
-        <v>7.693945332146987</v>
+        <v>-3.582905255765869</v>
       </c>
     </row>
     <row r="14">
@@ -1149,7 +1149,7 @@
         <v>4.974390825198292</v>
       </c>
       <c r="C14" t="n">
-        <v>41.21325032780346</v>
+        <v>4.121325032780346</v>
       </c>
       <c r="D14" t="n">
         <v>16.16206127270449</v>
@@ -1158,13 +1158,13 @@
         <v>27.66504941777041</v>
       </c>
       <c r="F14" t="n">
-        <v>9.400358377170992</v>
+        <v>2.772763356404518</v>
       </c>
       <c r="G14" t="n">
         <v>1.189381202450474</v>
       </c>
       <c r="H14" t="n">
-        <v>41.53789391957205</v>
+        <v>4.153789391957205</v>
       </c>
       <c r="I14" t="n">
         <v>16.28937016453806</v>
@@ -1173,22 +1173,22 @@
         <v>27.5475491563857</v>
       </c>
       <c r="K14" t="n">
-        <v>7.844101868846305</v>
+        <v>4.29073964997883</v>
       </c>
       <c r="L14" t="n">
-        <v>1.665155010677242</v>
+        <v>17.42986386516169</v>
       </c>
       <c r="M14" t="n">
-        <v>39.19350698318627</v>
+        <v>5.273489849649542</v>
       </c>
       <c r="N14" t="n">
-        <v>15.37000273850442</v>
+        <v>20.68035584584088</v>
       </c>
       <c r="O14" t="n">
-        <v>27.29789635250295</v>
+        <v>27.88213341330816</v>
       </c>
       <c r="P14" t="n">
-        <v>8.010080759404037</v>
+        <v>-1.629707990460545</v>
       </c>
     </row>
     <row r="15">
@@ -1201,7 +1201,7 @@
         <v>6.37260101010101</v>
       </c>
       <c r="C15" t="n">
-        <v>52.47114828446551</v>
+        <v>5.247114828446552</v>
       </c>
       <c r="D15" t="n">
         <v>20.57692089586883</v>
@@ -1210,13 +1210,13 @@
         <v>29.35888224747742</v>
       </c>
       <c r="F15" t="n">
-        <v>10.22497442901084</v>
+        <v>2.928097551347136</v>
       </c>
       <c r="G15" t="n">
         <v>0.8682371538949296</v>
       </c>
       <c r="H15" t="n">
-        <v>66.41397232977872</v>
+        <v>6.641397232977872</v>
       </c>
       <c r="I15" t="n">
         <v>26.04469503128577</v>
@@ -1225,22 +1225,22 @@
         <v>20.47413757137727</v>
       </c>
       <c r="K15" t="n">
-        <v>5.057077906250434</v>
+        <v>4.916638731943547</v>
       </c>
       <c r="L15" t="n">
-        <v>1.89518837018837</v>
+        <v>21.26021532896533</v>
       </c>
       <c r="M15" t="n">
-        <v>51.1119871117759</v>
+        <v>6.291667134464745</v>
       </c>
       <c r="N15" t="n">
-        <v>20.04391651442192</v>
+        <v>24.67319773979009</v>
       </c>
       <c r="O15" t="n">
-        <v>25.84874014457802</v>
+        <v>29.00189139299194</v>
       </c>
       <c r="P15" t="n">
-        <v>7.410281983155547</v>
+        <v>-2.556757584668345</v>
       </c>
     </row>
     <row r="16">
@@ -1253,7 +1253,7 @@
         <v>6.557349793064079</v>
       </c>
       <c r="C16" t="n">
-        <v>71.80938274560448</v>
+        <v>7.180938274560448</v>
       </c>
       <c r="D16" t="n">
         <v>28.16055001301847</v>
@@ -1262,13 +1262,13 @@
         <v>49.45750816275599</v>
       </c>
       <c r="F16" t="n">
-        <v>15.91136409409567</v>
+        <v>5.800639419285525</v>
       </c>
       <c r="G16" t="n">
         <v>5.232141182695592</v>
       </c>
       <c r="H16" t="n">
-        <v>67.06349672525378</v>
+        <v>6.706349672525379</v>
       </c>
       <c r="I16" t="n">
         <v>26.29941105022611</v>
@@ -1277,22 +1277,22 @@
         <v>38.40833148548268</v>
       </c>
       <c r="K16" t="n">
-        <v>12.16888845624288</v>
+        <v>4.995953983757638</v>
       </c>
       <c r="L16" t="n">
-        <v>2.424721706864564</v>
+        <v>18.88898423005566</v>
       </c>
       <c r="M16" t="n">
-        <v>70.50451626235278</v>
+        <v>7.732042190561645</v>
       </c>
       <c r="N16" t="n">
-        <v>27.64883018123329</v>
+        <v>30.32174623946256</v>
       </c>
       <c r="O16" t="n">
-        <v>45.69008443724165</v>
+        <v>46.06058367156609</v>
       </c>
       <c r="P16" t="n">
-        <v>13.1562284239297</v>
+        <v>0.7952012658583634</v>
       </c>
     </row>
     <row r="17">
@@ -1305,7 +1305,7 @@
         <v>3.956701308975834</v>
       </c>
       <c r="C17" t="n">
-        <v>64.44960907057917</v>
+        <v>6.444960907057918</v>
       </c>
       <c r="D17" t="n">
         <v>25.27435649826634</v>
@@ -1314,13 +1314,13 @@
         <v>21.25681966221678</v>
       </c>
       <c r="F17" t="n">
-        <v>6.569636814850718</v>
+        <v>3.664384470167237</v>
       </c>
       <c r="G17" t="n">
         <v>2.690897953080754</v>
       </c>
       <c r="H17" t="n">
-        <v>48.59696759510381</v>
+        <v>4.859696759510381</v>
       </c>
       <c r="I17" t="n">
         <v>19.05763574997651</v>
@@ -1329,22 +1329,22 @@
         <v>27.33400426593479</v>
       </c>
       <c r="K17" t="n">
-        <v>8.228390851497659</v>
+        <v>4.010659367503363</v>
       </c>
       <c r="L17" t="n">
-        <v>1.115828178941312</v>
+        <v>14.472166283084</v>
       </c>
       <c r="M17" t="n">
-        <v>63.81907297385261</v>
+        <v>6.87898557916335</v>
       </c>
       <c r="N17" t="n">
-        <v>25.02708744072651</v>
+        <v>26.97641662188543</v>
       </c>
       <c r="O17" t="n">
-        <v>20.65238190328456</v>
+        <v>21.35423951342748</v>
       </c>
       <c r="P17" t="n">
-        <v>5.265556033321936</v>
+        <v>-0.3218549112627729</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luxin/Desktop/ECE588/photoRestoration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3572EB8-5CE0-BB4D-9D4C-012F26E413E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA8CFC7-6178-9B41-9EFF-D0A0B31D9067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -247,6 +253,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,7 +1428,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1459,39 +1467,39 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>5.8835253060777877</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>7.1626270525493716</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>6.2317585616953561</v>
       </c>
-      <c r="F2" s="3">
-        <f>IF(C2&gt;B2, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="9">
+        <f t="shared" ref="F2:F17" si="0">IF(C2&gt;B2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
         <f>IF(D2&gt;B2, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="9">
         <f>IF(D2&gt;C2, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1507,15 +1515,15 @@
         <v>5.4165313209839869</v>
       </c>
       <c r="F3" s="3">
-        <f>IF(C3&gt;B3, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G17" si="0">IF(D3&gt;B3, 1, 0)</f>
+        <f t="shared" ref="G3:G17" si="1">IF(D3&gt;B3, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H17" si="1">IF(D3&gt;C3, 0, 1)</f>
+        <f t="shared" ref="H3:H17" si="2">IF(D3&gt;C3, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="I3" s="3"/>
@@ -1541,15 +1549,15 @@
         <v>8.9935296010622476</v>
       </c>
       <c r="F4" s="7">
-        <f>IF(C4&gt;B4, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
@@ -1575,15 +1583,15 @@
         <v>6.8746002970296551</v>
       </c>
       <c r="F5" s="3">
-        <f>IF(C5&gt;B5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
@@ -1609,15 +1617,15 @@
         <v>6.7158498847513819</v>
       </c>
       <c r="F6" s="7">
-        <f>IF(C6&gt;B6, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
@@ -1629,39 +1637,39 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>8.1144670134572952</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>9.1986456025606493</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>8.8442240343068903</v>
       </c>
-      <c r="F7" s="3">
-        <f>IF(C7&gt;B7, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="3">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1677,15 +1685,15 @@
         <v>7.5317280273873344</v>
       </c>
       <c r="F8" s="7">
-        <f>IF(C8&gt;B8, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I8" s="7"/>
@@ -1711,15 +1719,15 @@
         <v>8.0363992672345717</v>
       </c>
       <c r="F9" s="3">
-        <f>IF(C9&gt;B9, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="3"/>
@@ -1745,15 +1753,15 @@
         <v>8.8728039923436253</v>
       </c>
       <c r="F10" s="5">
-        <f>IF(C10&gt;B10, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="5"/>
@@ -1779,15 +1787,15 @@
         <v>8.2198298907325587</v>
       </c>
       <c r="F11" s="3">
-        <f>IF(C11&gt;B11, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="3"/>
@@ -1799,39 +1807,39 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>2.2857840100790332</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>8.1393216246119895</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>7.5713700412490192</v>
       </c>
-      <c r="F12" s="3">
-        <f>IF(C12&gt;B12, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12" s="3">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="H12" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1847,15 +1855,15 @@
         <v>5.9700711164201321</v>
       </c>
       <c r="F13" s="3">
-        <f>IF(C13&gt;B13, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I13" s="3"/>
@@ -1881,15 +1889,15 @@
         <v>6.8453816151020241</v>
       </c>
       <c r="F14" s="3">
-        <f>IF(C14&gt;B14, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="3"/>
@@ -1915,15 +1923,15 @@
         <v>6.8749905794654769</v>
       </c>
       <c r="F15" s="3">
-        <f>IF(C15&gt;B15, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
@@ -1949,15 +1957,15 @@
         <v>10.880280480131161</v>
       </c>
       <c r="F16" s="3">
-        <f>IF(C16&gt;B16, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
@@ -1983,15 +1991,15 @@
         <v>6.766167382624892</v>
       </c>
       <c r="F17" s="3">
-        <f>IF(C17&gt;B17, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="3"/>
